--- a/artfynd/A 56995-2024 artfynd.xlsx
+++ b/artfynd/A 56995-2024 artfynd.xlsx
@@ -780,7 +780,7 @@
         <v>124838791</v>
       </c>
       <c r="B3" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
